--- a/统计工作/Summary.xlsx
+++ b/统计工作/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="若梦-箱子" sheetId="13" r:id="rId7"/>
     <sheet name="何梦-箱子" sheetId="14" r:id="rId8"/>
     <sheet name="联盟总计" sheetId="15" r:id="rId9"/>
+    <sheet name="MYSQL" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1773,7 +1774,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3319,6 +3320,20 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/统计工作/Summary.xlsx
+++ b/统计工作/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>砍树</t>
+  </si>
+  <si>
+    <t>HONOR</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3327,7 +3329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -4334,54 +4336,60 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
       <c r="G1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="M1" s="30" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="P1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="31">
-        <v>5</v>
-      </c>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -4396,49 +4404,65 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="L3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="N3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="Q3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="S3" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:19">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4448,14 +4472,18 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -4465,14 +4493,18 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -4486,10 +4518,14 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -4503,10 +4539,14 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -4522,22 +4562,29 @@
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
       <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -4551,10 +4598,14 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -4568,10 +4619,14 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -4587,8 +4642,12 @@
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -4602,10 +4661,14 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -4621,8 +4684,12 @@
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -4632,18 +4699,22 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="28"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -4655,8 +4726,12 @@
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -4672,8 +4747,12 @@
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -4689,25 +4768,33 @@
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -4721,27 +4808,35 @@
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:15" s="10" customFormat="1">
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+    </row>
+    <row r="21" spans="1:19" s="10" customFormat="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
       <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:15" s="10" customFormat="1">
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+    </row>
+    <row r="22" spans="1:19" s="10" customFormat="1">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -4757,692 +4852,744 @@
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
       <c r="O22" s="27"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
       <c r="O24" s="27"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
       <c r="O25" s="27"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="O26" s="27"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
       <c r="O27" s="27"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
       <c r="M42" s="27"/>
       <c r="N42" s="27"/>
       <c r="O42" s="27"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="27"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="28"/>
-      <c r="L43" s="27"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="28"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="27"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="J44" s="27"/>
       <c r="K44" s="28"/>
-      <c r="L44" s="27"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="O44" s="27"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
-      <c r="H45" s="27"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="J45" s="27"/>
       <c r="K45" s="28"/>
-      <c r="L45" s="27"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="O45" s="27"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="28"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="27"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
       <c r="H47" s="27"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="28"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
-      <c r="D48" s="27"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
       <c r="H48" s="27"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="28"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
       <c r="O48" s="27"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
-      <c r="D49" s="27"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
       <c r="H49" s="27"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="28"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
-      <c r="D50" s="27"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
       <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="28"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
       <c r="O50" s="27"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="P50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
       <c r="O51" s="27"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="P51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="27"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
       <c r="K52" s="28"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
       <c r="O52" s="27"/>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="27"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
       <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
       <c r="O53" s="27"/>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="11"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="11"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="F54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="28"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="11"/>
-      <c r="D55" s="10"/>
+      <c r="B55" s="28"/>
       <c r="E55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="F55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="28"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="11"/>
-      <c r="D56" s="10"/>
+      <c r="B56" s="28"/>
       <c r="E56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="11"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="F56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="28"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="10"/>
-      <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="11"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="F57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="28"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="10"/>
-      <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="11"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="F58" s="10"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="28"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="10"/>
-      <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="11"/>
+      <c r="F59" s="10"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="O59" s="10"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="10"/>
-      <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="10"/>
-      <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="9"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="10"/>
-      <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="11"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="F62" s="10"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="28"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="10"/>
-      <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="11"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="F63" s="10"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="28"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="10"/>
-      <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="11"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="28"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5525,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21">
-        <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">
@@ -6946,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="7">
@@ -8391,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21">
-        <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">
@@ -9830,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21">
-        <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">

--- a/统计工作/Summary.xlsx
+++ b/统计工作/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4338,8 +4338,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5600,8 +5600,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7011,6 +7014,7 @@
     <sortCondition descending="1" ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -7020,7 +7024,10 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="A3:H147"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8467,7 +8474,10 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H148"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9904,7 +9914,10 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/统计工作/Summary.xlsx
+++ b/统计工作/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>何梦</t>
-  </si>
-  <si>
-    <t>SAT.</t>
-  </si>
-  <si>
-    <t>SUN.</t>
   </si>
   <si>
     <t>ID</t>
@@ -153,12 +147,21 @@
   <si>
     <t>HONOR</t>
   </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +191,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,11 +220,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,16 +237,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,15 +326,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="3" builtinId="27"/>
+  <cellStyles count="5">
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,6 +920,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1777,75 +1832,79 @@
   <dimension ref="A1:P145"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="27"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="27"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="27"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="27"/>
     <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="D1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="30" t="s">
+      <c r="H1" s="31"/>
+      <c r="J1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="G1" s="30" t="s">
+      <c r="K1" s="31"/>
+      <c r="M1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="J1" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="M1" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="30"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>35</v>
+      <c r="A2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="P2" s="19"/>
     </row>
@@ -1946,7 +2005,6 @@
       <c r="H10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
-      <c r="L10" s="19"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
     </row>
@@ -3342,10 +3400,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3355,26 +3413,18 @@
     <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
+    <row r="1" spans="1:5">
+      <c r="A1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3385,15 +3435,16 @@
   <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="16.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="5" max="5" width="9.140625" style="27"/>
     <col min="6" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="27"/>
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="14" width="16.140625" bestFit="1" customWidth="1"/>
@@ -3401,63 +3452,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4336,10 +4385,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4348,14 +4397,17 @@
     <col min="2" max="2" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="27"/>
     <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="27"/>
     <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="27"/>
     <col min="16" max="16" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
@@ -4363,121 +4415,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="P1" s="30" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="P1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="28" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
-      <c r="O4" s="28"/>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="29"/>
@@ -4488,17 +4531,14 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
       <c r="R5" s="29"/>
@@ -4509,17 +4549,14 @@
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="28"/>
       <c r="R6" s="29"/>
@@ -4530,38 +4567,28 @@
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
@@ -4572,34 +4599,32 @@
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="29"/>
@@ -4610,80 +4635,68 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
       <c r="P14" s="28"/>
       <c r="Q14" s="28"/>
       <c r="R14" s="28"/>
@@ -4692,19 +4705,16 @@
     <row r="15" spans="1:19">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
       <c r="R15" s="28"/>
@@ -4713,19 +4723,16 @@
     <row r="16" spans="1:19">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
       <c r="P16" s="28"/>
       <c r="Q16" s="28"/>
       <c r="R16" s="28"/>
@@ -4736,17 +4743,14 @@
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="28"/>
@@ -4757,103 +4761,90 @@
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" s="10" customFormat="1">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" spans="1:19" s="10" customFormat="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-    </row>
-    <row r="22" spans="1:19" s="10" customFormat="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
     </row>
@@ -4861,15 +4852,12 @@
       <c r="A23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
@@ -4878,15 +4866,12 @@
       <c r="A24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
@@ -4895,15 +4880,12 @@
       <c r="A25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
@@ -4912,15 +4894,12 @@
       <c r="A26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
       <c r="K26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
@@ -4929,15 +4908,12 @@
       <c r="A27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
@@ -4946,15 +4922,12 @@
       <c r="A28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
       <c r="K28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
@@ -4963,15 +4936,12 @@
       <c r="A29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
       <c r="P29" s="27"/>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
@@ -4980,15 +4950,12 @@
       <c r="A30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
       <c r="K30" s="27"/>
       <c r="M30" s="27"/>
       <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
       <c r="P30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
@@ -4997,15 +4964,12 @@
       <c r="A31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
       <c r="K31" s="27"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
       <c r="P31" s="27"/>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
@@ -5014,15 +4978,12 @@
       <c r="A32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
       <c r="F32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
       <c r="P32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
@@ -5031,15 +4992,12 @@
       <c r="A33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
       <c r="P33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
@@ -5048,15 +5006,12 @@
       <c r="A34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="M34" s="27"/>
       <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
       <c r="P34" s="27"/>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
@@ -5065,15 +5020,12 @@
       <c r="A35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
       <c r="K35" s="27"/>
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
       <c r="P35" s="27"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
@@ -5082,15 +5034,12 @@
       <c r="A36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
       <c r="K36" s="27"/>
       <c r="M36" s="27"/>
       <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
       <c r="P36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
@@ -5099,15 +5048,12 @@
       <c r="A37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
       <c r="K37" s="27"/>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
@@ -5116,15 +5062,12 @@
       <c r="A38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
@@ -5133,15 +5076,12 @@
       <c r="A39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
       <c r="K39" s="27"/>
       <c r="M39" s="27"/>
       <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="R39" s="27"/>
       <c r="S39" s="27"/>
@@ -5150,15 +5090,12 @@
       <c r="A40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
       <c r="K40" s="27"/>
       <c r="M40" s="27"/>
       <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
       <c r="P40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
@@ -5167,73 +5104,65 @@
       <c r="A41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="M41" s="27"/>
       <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
       <c r="P41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="27"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="27"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
-      <c r="O43" s="27"/>
       <c r="P43" s="28"/>
       <c r="Q43" s="28"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="27"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="27"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
-      <c r="O44" s="27"/>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
       <c r="R44" s="28"/>
@@ -5244,38 +5173,30 @@
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
-      <c r="E45" s="27"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="27"/>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
+      <c r="P45" s="27"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="K46" s="28"/>
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
-      <c r="O46" s="27"/>
       <c r="P46" s="27"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
@@ -5285,73 +5206,61 @@
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
-      <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
       <c r="K47" s="28"/>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
-      <c r="O47" s="27"/>
       <c r="P47" s="27"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
-      <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
       <c r="K48" s="28"/>
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
-      <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
-      <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
       <c r="K49" s="28"/>
       <c r="L49" s="28"/>
       <c r="M49" s="28"/>
       <c r="N49" s="28"/>
-      <c r="O49" s="27"/>
       <c r="P49" s="27"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
-      <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
       <c r="K50" s="28"/>
       <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="27"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
       <c r="P50" s="27"/>
       <c r="R50" s="27"/>
       <c r="S50" s="27"/>
@@ -5361,16 +5270,13 @@
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
       <c r="K51" s="28"/>
       <c r="L51" s="28"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="27"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
       <c r="P51" s="27"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
@@ -5380,49 +5286,35 @@
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
-      <c r="E52" s="27"/>
       <c r="F52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
       <c r="P52" s="27"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="28"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="28"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="11"/>
       <c r="B54" s="28"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
       <c r="F54" s="10"/>
-      <c r="J54" s="10"/>
       <c r="K54" s="11"/>
       <c r="L54" s="28"/>
-      <c r="O54" s="10"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="28"/>
       <c r="R54" s="9"/>
@@ -5431,26 +5323,19 @@
     <row r="55" spans="1:19">
       <c r="A55" s="11"/>
       <c r="B55" s="28"/>
-      <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-      <c r="J55" s="10"/>
       <c r="K55" s="11"/>
       <c r="L55" s="28"/>
-      <c r="O55" s="10"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="28"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="11"/>
-      <c r="B56" s="28"/>
-      <c r="E56" s="10"/>
+      <c r="A56" s="10"/>
       <c r="F56" s="10"/>
-      <c r="J56" s="10"/>
       <c r="K56" s="11"/>
       <c r="L56" s="28"/>
-      <c r="O56" s="10"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="28"/>
       <c r="R56" s="9"/>
@@ -5458,12 +5343,11 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="10"/>
-      <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="K57" s="11"/>
       <c r="L57" s="28"/>
-      <c r="O57" s="10"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="28"/>
       <c r="R57" s="9"/>
@@ -5471,14 +5355,15 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="10"/>
-      <c r="E58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="F58" s="10"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
       <c r="K58" s="11"/>
       <c r="L58" s="28"/>
-      <c r="O58" s="10"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="28"/>
       <c r="R58" s="9"/>
@@ -5488,51 +5373,39 @@
       <c r="A59" s="10"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
       <c r="K59" s="11"/>
       <c r="L59" s="28"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="28"/>
+      <c r="P59" s="10"/>
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="10"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
       <c r="K60" s="11"/>
       <c r="L60" s="28"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="F61" s="10"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
       <c r="K61" s="11"/>
       <c r="L61" s="28"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
@@ -5541,14 +5414,11 @@
       <c r="A62" s="10"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
       <c r="K62" s="11"/>
       <c r="L62" s="28"/>
-      <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
@@ -5557,39 +5427,19 @@
       <c r="A63" s="10"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
       <c r="K63" s="11"/>
       <c r="L63" s="28"/>
-      <c r="O63" s="10"/>
       <c r="P63" s="10"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="10"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="28"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
-    <mergeCell ref="A2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5600,11 +5450,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5621,53 +5471,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="21">
-        <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
+        <f>COUNTIF(盟会战!A$1:X$149,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="21">
@@ -5675,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21">
-        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">
@@ -7027,7 +6877,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7046,53 +6896,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
-        <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
+        <f>COUNTIF(盟会战!A$1:X$149,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="7">
@@ -7100,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="7">
@@ -8477,7 +8327,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8494,53 +8344,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="21">
-        <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
+        <f>COUNTIF(盟会战!A$1:X$149,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="21">
@@ -8548,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21">
-        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">
@@ -9917,7 +9767,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9936,53 +9786,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="38" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="21">
-        <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
+        <f>COUNTIF(盟会战!A$1:X$149,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="21">
@@ -9990,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="21">
-        <f>COUNTIF(帮战总榜!A$1:AB$151,$A2)</f>
+        <f>COUNTIF(帮战总榜!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="21">
@@ -11379,15 +11229,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <f>('逐梦-箱子'!$L$2)</f>
@@ -11416,7 +11266,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="12">
         <f>('逐梦-箱子'!$J$2)</f>
@@ -11441,7 +11291,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -11451,7 +11301,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
@@ -11466,12 +11316,12 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11496,7 +11346,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11521,7 +11371,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11546,7 +11396,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11571,7 +11421,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>

--- a/统计工作/Summary.xlsx
+++ b/统计工作/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>实际发放</t>
-  </si>
-  <si>
-    <t>四海</t>
   </si>
   <si>
     <t>盟会战</t>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>SUN</t>
+  </si>
+  <si>
+    <t>醉侠</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -343,6 +337,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -920,7 +927,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1854,57 +1860,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="D1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="37"/>
+      <c r="G1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="37"/>
+      <c r="J1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="37"/>
+      <c r="M1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="31"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>33</v>
       </c>
       <c r="P2" s="19"/>
     </row>
@@ -3402,7 +3408,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3414,14 +3420,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>38</v>
+      <c r="E1" s="30" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3435,7 +3441,7 @@
   <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3452,61 +3458,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="K1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="32" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4387,8 +4393,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4415,98 +4421,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="P1" s="31" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="L2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="33" t="s">
+      <c r="Q2" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="28"/>
@@ -5471,46 +5480,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -6896,46 +6905,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -8344,46 +8353,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -9786,46 +9795,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="38" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -11232,12 +11241,12 @@
         <v>11</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <f>('逐梦-箱子'!$L$2)</f>
@@ -11290,18 +11299,18 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
@@ -11321,7 +11330,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11346,7 +11355,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11371,7 +11380,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11396,7 +11405,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
@@ -11421,7 +11430,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="e">
         <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>

--- a/统计工作/Summary.xlsx
+++ b/统计工作/Summary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Fri</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>超六总计</t>
@@ -338,18 +335,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -386,7 +383,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>掠夺活跃度</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -398,7 +457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>联盟总计!$B$9</c:f>
+              <c:f>联盟总计!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -417,48 +476,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>联盟总计!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Fri</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>联盟总计!$B$10:$B$14</c:f>
+              <c:f>联盟总计!$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -466,7 +490,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C725-4ECD-B309-F4A02D933E50}"/>
+              <c16:uniqueId val="{00000000-C5AF-428C-B0DA-42BCEFAE5868}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -475,7 +499,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>联盟总计!$C$9</c:f>
+              <c:f>联盟总计!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -494,48 +518,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>联盟总计!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Fri</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>联盟总计!$C$10:$C$14</c:f>
+              <c:f>联盟总计!$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -543,7 +532,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C725-4ECD-B309-F4A02D933E50}"/>
+              <c16:uniqueId val="{00000001-C5AF-428C-B0DA-42BCEFAE5868}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -552,7 +541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>联盟总计!$D$9</c:f>
+              <c:f>联盟总计!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -571,48 +560,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>联盟总计!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Fri</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>联盟总计!$D$10:$D$14</c:f>
+              <c:f>联盟总计!$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -620,7 +574,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C725-4ECD-B309-F4A02D933E50}"/>
+              <c16:uniqueId val="{00000002-C5AF-428C-B0DA-42BCEFAE5868}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -629,7 +583,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>联盟总计!$E$9</c:f>
+              <c:f>联盟总计!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -648,48 +602,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>联盟总计!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Fri</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>联盟总计!$E$10:$E$14</c:f>
+              <c:f>联盟总计!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -697,7 +616,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C725-4ECD-B309-F4A02D933E50}"/>
+              <c16:uniqueId val="{00000003-C5AF-428C-B0DA-42BCEFAE5868}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -711,150 +630,21 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="559391232"/>
-        <c:axId val="559392480"/>
+        <c:axId val="323136144"/>
+        <c:axId val="707586352"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>联盟总计!$F$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总计</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>联盟总计!$A$10:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Fri</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>联盟总计!$F$10:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C725-4ECD-B309-F4A02D933E50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="559391232"/>
-        <c:axId val="559392480"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="559391232"/>
+        <c:axId val="323136144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="559392480"/>
+        <c:crossAx val="707586352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -862,7 +652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="559392480"/>
+        <c:axId val="707586352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559391232"/>
+        <c:crossAx val="323136144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1541,19 +1331,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7937</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11112</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C9C147-4C76-48E3-964D-A43705B363CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1647,6 +1443,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1682,6 +1495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1860,57 +1690,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="G1" s="37" t="s">
+      <c r="E1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="40"/>
+      <c r="J1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="K1" s="40"/>
+      <c r="M1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="37"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="J2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="M2" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>32</v>
       </c>
       <c r="P2" s="19"/>
     </row>
@@ -3421,13 +3251,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3458,24 +3288,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="K1" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17">
@@ -4393,7 +4223,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
@@ -4421,37 +4251,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="K1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="P1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>9</v>
@@ -4463,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>9</v>
@@ -4475,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" s="31" t="s">
         <v>9</v>
@@ -4487,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R2" s="31" t="s">
         <v>9</v>
@@ -4497,25 +4327,25 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="28"/>
@@ -5519,7 +5349,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -6944,7 +6774,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -8392,7 +8222,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -9834,7 +9664,7 @@
     </row>
     <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
@@ -11214,8 +11044,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11241,7 +11071,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11298,164 +11128,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="4">
+        <f>SUM('逐梦-箱子'!B$2:B$152)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM('如梦-箱子'!B$2:B$152)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f>SUM('若梦-箱子'!B$2:B$152)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f>SUM('何梦-箱子'!B$2:B$152)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C10" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"BBB")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"CCC")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"DDD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="4" t="e">
-        <f>SUM(B10:E10)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C11" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"BBB")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"CCC")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"DDD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="4" t="e">
-        <f t="shared" ref="F11:F14" si="0">SUM(B11:E11)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C12" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"BBB")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"CCC")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"DDD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"BBB")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"CCC")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"DDD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"AAA")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"BBB")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"CCC")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="4" t="e">
-        <f>COUNTIF(掠夺总榜!#REF!,"DDD")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
